--- a/MultiDayConcat/concat_days.xlsx
+++ b/MultiDayConcat/concat_days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel_barron/Documents/Research/ALAB/Code/alab_code/MultiDayConcat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D386DCF-0AFF-7F45-A788-EC2A780D1E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2E172-0667-E141-B9FC-58CCAB09DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="760" windowWidth="27400" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Day</t>
   </si>
@@ -28,40 +28,7 @@
     <t>Path</t>
   </si>
   <si>
-    <t>Day 4</t>
-  </si>
-  <si>
-    <t>Day 5</t>
-  </si>
-  <si>
-    <t>Day 6</t>
-  </si>
-  <si>
-    <t>Day 7</t>
-  </si>
-  <si>
-    <t>Day 8</t>
-  </si>
-  <si>
-    <t>Day 9</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_Lab/Data/Julia/ATNRSC/CCH_9day/ZA03/concatData/concatEphys/Day 4</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_Lab/Data/Julia/ATNRSC/CCH_9day/ZA03/concatData/concatEphys/Day 5</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_Lab/Data/Julia/ATNRSC/CCH_9day/ZA03/concatData/concatEphys/Day 6</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_Lab/Data/Julia/ATNRSC/CCH_9day/ZA03/concatData/concatEphys/Day 7</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_Lab/Data/Julia/ATNRSC/CCH_9day/ZA03/concatData/concatEphys/Day 8</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_Lab/Data/Julia/ATNRSC/CCH_9day/ZA03/concatData/concatEphys/Day 9</t>
+    <t>/Users/miguel_barron/Downloads/concatEphys/03312025</t>
   </si>
 </sst>
 </file>
@@ -412,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="244" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -432,51 +399,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/MultiDayConcat/concat_days.xlsx
+++ b/MultiDayConcat/concat_days.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel_barron/Documents/Research/ALAB/Code/alab_code/MultiDayConcat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2E172-0667-E141-B9FC-58CCAB09DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD5C9E8-3E88-394C-B5F6-63BB0BD2CCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="760" windowWidth="27400" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Day</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>/Users/miguel_barron/Downloads/concatEphys/03312025</t>
+    <t>SessionID</t>
+  </si>
+  <si>
+    <t>RatID</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>DataPath</t>
+  </si>
+  <si>
+    <t>OutputDir</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>AL02</t>
+  </si>
+  <si>
+    <t>CH_2day</t>
+  </si>
+  <si>
+    <t>/Volumes/ASA_Lab/Data/Julia/ATNRSC/CH_2day/AL02/sessions/03312025_A/Record Node 101/experiment1/recording1/continuous/Acquisition_Board-100.Rhythm Data/continuous.dat</t>
+  </si>
+  <si>
+    <t>/Volumes/ASA_Lab/Data/Julia/ATNRSC/CH_2day/AL02/sessions/03312025_B/Record Node 101/experiment1/recording1/continuous/Acquisition_Board-100.Rhythm Data/continuous.dat</t>
+  </si>
+  <si>
+    <t>/Volumes/ASA_Lab/Data/Julia/ATNRSC/CH_2day/AL02/sessions/03312025_C/Record Node 101/experiment1/recording1/continuous/Acquisition_Board-100.Rhythm Data/continuous.dat</t>
+  </si>
+  <si>
+    <t>/Volumes/ASA_Lab/Data/Julia/ATNRSC/CH_2day/AL02/sessions/04012025_A/Record Node 101/experiment1/recording1/continuous/Acquisition_Board-100.Rhythm Data/continuous.dat</t>
+  </si>
+  <si>
+    <t>/Volumes/ASA_Lab/Data/Julia/ATNRSC/CH_2day/AL02/sessions/04012025_B/Record Node 101/experiment1/recording1/continuous/Acquisition_Board-100.Rhythm Data/continuous.dat</t>
+  </si>
+  <si>
+    <t>/Volumes/ASA_Lab/Data/Julia/ATNRSC/CH_2day/AL02/concatEphys/03312025</t>
+  </si>
+  <si>
+    <t>/Volumes/ASA_Lab/Data/Julia/ATNRSC/CH_2day/AL02/concatEphys/04012025</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>source</t>
   </si>
 </sst>
 </file>
@@ -379,31 +433,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="244" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="244" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.1640625" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>3312025</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3312025</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
         <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3312025</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4012025</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4012025</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/MultiDayConcat/concat_days.xlsx
+++ b/MultiDayConcat/concat_days.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel_barron/Documents/Research/ALAB/Code/alab_code/MultiDayConcat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ASA_Lab/Data/Julia/ATNRSC/python/miguels_code/MultiDayConcat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD5C9E8-3E88-394C-B5F6-63BB0BD2CCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874D64C6-32C4-6844-9A98-497902E8F7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="244" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="244" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -445,6 +448,7 @@
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="141.1640625" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -466,7 +470,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -492,7 +496,7 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" t="s">
@@ -518,7 +522,7 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>2</v>
       </c>
       <c r="H3" t="s">
@@ -544,7 +548,7 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" t="s">
@@ -570,7 +574,7 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" t="s">
@@ -596,7 +600,7 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" t="s">
